--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I606"/>
+  <dimension ref="A1:I613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18549,6 +18549,235 @@
         <v>372.58</v>
       </c>
       <c r="I606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>386.2780952380953</v>
+      </c>
+      <c r="C607" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="D607" t="n">
+        <v>363.23</v>
+      </c>
+      <c r="E607" t="n">
+        <v>379.4027272727273</v>
+      </c>
+      <c r="F607" t="n">
+        <v>382.3261538461539</v>
+      </c>
+      <c r="G607" t="n">
+        <v>378.7966666666667</v>
+      </c>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>383.9595238095238</v>
+      </c>
+      <c r="C608" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="D608" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="E608" t="n">
+        <v>376.7918181818182</v>
+      </c>
+      <c r="F608" t="n">
+        <v>369.16</v>
+      </c>
+      <c r="G608" t="n">
+        <v>376.0366666666667</v>
+      </c>
+      <c r="H608" t="n">
+        <v>384.0766666666667</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>366.5209523809524</v>
+      </c>
+      <c r="C609" t="n">
+        <v>368.33</v>
+      </c>
+      <c r="D609" t="n">
+        <v>364.88</v>
+      </c>
+      <c r="E609" t="n">
+        <v>364.0009090909091</v>
+      </c>
+      <c r="F609" t="n">
+        <v>367.6938461538462</v>
+      </c>
+      <c r="G609" t="n">
+        <v>372.7966666666667</v>
+      </c>
+      <c r="H609" t="n">
+        <v>382.5466666666667</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>372.3890476190476</v>
+      </c>
+      <c r="C610" t="n">
+        <v>383.91</v>
+      </c>
+      <c r="D610" t="n">
+        <v>378.62</v>
+      </c>
+      <c r="E610" t="n">
+        <v>378.2290909090909</v>
+      </c>
+      <c r="F610" t="n">
+        <v>377.6061538461539</v>
+      </c>
+      <c r="G610" t="n">
+        <v>386.3033333333333</v>
+      </c>
+      <c r="H610" t="n">
+        <v>393.4533333333333</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>373.79</v>
+      </c>
+      <c r="C611" t="n">
+        <v>373.63</v>
+      </c>
+      <c r="D611" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="E611" t="n">
+        <v>374.1627272727272</v>
+      </c>
+      <c r="F611" t="n">
+        <v>380.1230769230769</v>
+      </c>
+      <c r="G611" t="n">
+        <v>373.87</v>
+      </c>
+      <c r="H611" t="n">
+        <v>391.58</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>362.0004761904762</v>
+      </c>
+      <c r="C612" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="D612" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="E612" t="n">
+        <v>370.6772727272728</v>
+      </c>
+      <c r="F612" t="n">
+        <v>365.9461538461539</v>
+      </c>
+      <c r="G612" t="n">
+        <v>374.5033333333333</v>
+      </c>
+      <c r="H612" t="n">
+        <v>373.6133333333333</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>369.6409523809524</v>
+      </c>
+      <c r="C613" t="n">
+        <v>376.68</v>
+      </c>
+      <c r="D613" t="n">
+        <v>369.13</v>
+      </c>
+      <c r="E613" t="n">
+        <v>384.5209090909091</v>
+      </c>
+      <c r="F613" t="n">
+        <v>374.0638461538462</v>
+      </c>
+      <c r="G613" t="n">
+        <v>380.0966666666667</v>
+      </c>
+      <c r="H613" t="n">
+        <v>383.6966666666667</v>
+      </c>
+      <c r="I613" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18565,7 +18794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B631"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24883,6 +25112,76 @@
       </c>
       <c r="B631" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -25051,28 +25350,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03359422401485206</v>
+        <v>0.05408770449301617</v>
       </c>
       <c r="J2" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K2" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004556808826721159</v>
+        <v>0.001202016774079939</v>
       </c>
       <c r="M2" t="n">
-        <v>8.854956745666902</v>
+        <v>8.838249838729933</v>
       </c>
       <c r="N2" t="n">
-        <v>135.2913785239447</v>
+        <v>135.0053952223641</v>
       </c>
       <c r="O2" t="n">
-        <v>11.63148221526151</v>
+        <v>11.61918220970668</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4778485179012</v>
+        <v>365.2803235902234</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25128,28 +25427,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01170480863088157</v>
+        <v>-0.01587542415005784</v>
       </c>
       <c r="J3" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>9.681447416953759e-05</v>
+        <v>0.0001826686442686354</v>
       </c>
       <c r="M3" t="n">
-        <v>6.818192609582782</v>
+        <v>6.779791415256481</v>
       </c>
       <c r="N3" t="n">
-        <v>77.19632477084264</v>
+        <v>76.44391439087202</v>
       </c>
       <c r="O3" t="n">
-        <v>8.78614390792927</v>
+        <v>8.743221053528957</v>
       </c>
       <c r="P3" t="n">
-        <v>376.3314468244737</v>
+        <v>376.3718819997834</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25205,28 +25504,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04028921613356511</v>
+        <v>0.02679202459130396</v>
       </c>
       <c r="J4" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009898629244753376</v>
+        <v>0.0004468238783071898</v>
       </c>
       <c r="M4" t="n">
-        <v>7.40252545150913</v>
+        <v>7.395489809115041</v>
       </c>
       <c r="N4" t="n">
-        <v>88.23635858679049</v>
+        <v>87.91870080760613</v>
       </c>
       <c r="O4" t="n">
-        <v>9.393421026803306</v>
+        <v>9.376497256844164</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4429340956266</v>
+        <v>371.5737251960491</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25282,28 +25581,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02814811255910746</v>
+        <v>-0.03543731455052357</v>
       </c>
       <c r="J5" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K5" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005562277400097404</v>
+        <v>0.0009013139826874461</v>
       </c>
       <c r="M5" t="n">
-        <v>6.381340534951118</v>
+        <v>6.36191485984064</v>
       </c>
       <c r="N5" t="n">
-        <v>75.620346287009</v>
+        <v>75.17003306713059</v>
       </c>
       <c r="O5" t="n">
-        <v>8.695995991662427</v>
+        <v>8.670065343878937</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7165320436958</v>
+        <v>378.7876379958206</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25359,28 +25658,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04337798308383421</v>
+        <v>-0.05626408625691896</v>
       </c>
       <c r="J6" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00140202652140986</v>
+        <v>0.002401976449445398</v>
       </c>
       <c r="M6" t="n">
-        <v>6.456623127186878</v>
+        <v>6.447783549024624</v>
       </c>
       <c r="N6" t="n">
-        <v>70.26096870748276</v>
+        <v>70.05445279052205</v>
       </c>
       <c r="O6" t="n">
-        <v>8.38218161981013</v>
+        <v>8.369853809387715</v>
       </c>
       <c r="P6" t="n">
-        <v>379.5523881423023</v>
+        <v>379.6798068735339</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25436,28 +25735,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01694505436973749</v>
+        <v>0.01236969175574659</v>
       </c>
       <c r="J7" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K7" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002056505739821413</v>
+        <v>0.0001125037414284602</v>
       </c>
       <c r="M7" t="n">
-        <v>6.6165222914143</v>
+        <v>6.576395972110889</v>
       </c>
       <c r="N7" t="n">
-        <v>72.7942527001897</v>
+        <v>72.02905977893788</v>
       </c>
       <c r="O7" t="n">
-        <v>8.531954799469446</v>
+        <v>8.486993565388033</v>
       </c>
       <c r="P7" t="n">
-        <v>378.6397070026683</v>
+        <v>378.685727670276</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25513,28 +25812,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02045625464422973</v>
+        <v>0.01556370915292383</v>
       </c>
       <c r="J8" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K8" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002902932529433855</v>
+        <v>0.0001714272693517094</v>
       </c>
       <c r="M8" t="n">
-        <v>6.403145013113682</v>
+        <v>6.394168529237815</v>
       </c>
       <c r="N8" t="n">
-        <v>75.03052563051887</v>
+        <v>74.64298065326557</v>
       </c>
       <c r="O8" t="n">
-        <v>8.662016256652885</v>
+        <v>8.639616927460706</v>
       </c>
       <c r="P8" t="n">
-        <v>386.181515909667</v>
+        <v>386.2305508387428</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25571,7 +25870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I606"/>
+  <dimension ref="A1:I613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50273,6 +50572,331 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.55623718211941,174.7076925118829</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.55689088464353,174.70734095572084</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.55760021212119,174.70729090465346</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.55828872620061,174.707583990002</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.5589815686237,174.70778616099767</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.55968725498501,174.7079566158959</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.55623263811042,174.70766723056767</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.55689387860829,174.70739220931574</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-36.5575987871293,174.70730734364014</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.558292771313695,174.70755525655963</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.5590081544657,174.70764281386457</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-36.55969325567827,174.70792669277554</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-36.5603752754345,174.7082169358518</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.55619846127692,174.70747708338845</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.55688810544337,174.70729337901705</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.55759862344765,174.70730923190206</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.55831258832517,174.70741449065792</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.559011114995876,174.7076268510376</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.5597002999609,174.70789156562793</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.56037855692528,174.70820033412917</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.556209961847046,174.70754106807078</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.55689824585194,174.70746697271727</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.55758539402105,174.70746184786614</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.558290544530486,174.70757107395988</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.55899109953402,174.70773477178275</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.55967093422148,174.70803800097627</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.560355164636306,174.70831868014534</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.55621270749451,174.70755634381268</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.55689155503321,174.707352432069</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.55758857141196,174.7074251933824</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.558296844589194,174.70752632302035</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.55898601721298,174.70776217489905</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.559697966362236,174.70790320239982</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.560359182513245,174.7082983529927</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.55618960181048,174.70742779292019</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.55688885394178,174.70730619241476</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.557605315114245,174.7072320353036</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.55830224462626,174.70748796506587</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.55901464401968,174.70760782294408</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.559696589393546,174.70791006881763</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.560397716782326,174.70810340029416</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.556204576004575,174.7075111033196</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.556893540161205,174.70738641543093</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.55759453139684,174.70735643844756</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.5582807965196,174.70764031634369</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.55899825236225,174.70769620473763</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.55968442856897,174.7079707101176</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.560376090445494,174.70821281254825</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -25195,7 +25195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25286,35 +25286,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25373,27 +25378,28 @@
       <c r="P2" t="n">
         <v>365.2803235902234</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.70348063815126 -36.55548006709824, 174.7135291326469 -36.55728608474668)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7034806381513</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.55548006709824</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7135291326469</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.55728608474668</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7085048853991</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.55638307592245</v>
       </c>
     </row>
@@ -25450,27 +25456,28 @@
       <c r="P3" t="n">
         <v>376.3718819997834</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.703189424756 -36.5566482999418, 174.71345810486915 -36.55724805854378)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.703189424756</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.5566482999418</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7134581048691</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.55724805854378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7083237648126</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.55694817924279</v>
       </c>
     </row>
@@ -25527,27 +25534,28 @@
       <c r="P4" t="n">
         <v>371.5737251960491</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.70325633425622 -36.557949873611484, 174.7134929320932 -36.55706243340639)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7032563342562</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.55794987361148</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7134929320932</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.55706243340639</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7083746331747</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.55750615350894</v>
       </c>
     </row>
@@ -25604,27 +25612,28 @@
       <c r="P5" t="n">
         <v>378.7876379958206</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7034085723803 -36.55887646759057, 174.7135506053018 -36.557448583717985)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7034085723803</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.55887646759057</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7135506053018</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.55744858371799</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.708479588841</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.55816252565428</v>
       </c>
     </row>
@@ -25681,27 +25690,28 @@
       <c r="P6" t="n">
         <v>379.6798068735339</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7036235239375 -36.55975351400116, 174.71365683149145 -36.557892603378356)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7036235239375</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.55975351400116</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7136568314914</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.55789260337836</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7086401777145</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.55882305868975</v>
       </c>
     </row>
@@ -25758,27 +25768,28 @@
       <c r="P7" t="n">
         <v>378.685727670276</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.70384976624126 -36.560510751969275, 174.71384068050895 -36.55850711930926)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7038497662413</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.56051075196928</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.713840680509</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.55850711930926</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7088452233751</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.55950893563927</v>
       </c>
     </row>
@@ -25835,27 +25846,28 @@
       <c r="P8" t="n">
         <v>386.2305508387428</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.70404935027682 -36.561198958216586, 174.71404863607273 -36.55922242438897)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7040493502768</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.56119895821659</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7140486360727</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.55922242438897</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7090489931748</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.56021069130278</v>
       </c>
     </row>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I613"/>
+  <dimension ref="A1:I620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18778,6 +18778,223 @@
         <v>383.6966666666667</v>
       </c>
       <c r="I613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>379.3819047619048</v>
+      </c>
+      <c r="C614" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="D614" t="n">
+        <v>368.01</v>
+      </c>
+      <c r="E614" t="n">
+        <v>381.62</v>
+      </c>
+      <c r="F614" t="n">
+        <v>375.2484615384615</v>
+      </c>
+      <c r="G614" t="n">
+        <v>379.8833333333333</v>
+      </c>
+      <c r="H614" t="n">
+        <v>389.3933333333333</v>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>372.7580952380952</v>
+      </c>
+      <c r="C615" t="n">
+        <v>394.51</v>
+      </c>
+      <c r="D615" t="n">
+        <v>385.82</v>
+      </c>
+      <c r="E615" t="n">
+        <v>381.8781818181818</v>
+      </c>
+      <c r="F615" t="n">
+        <v>385.3823076923077</v>
+      </c>
+      <c r="G615" t="n">
+        <v>386.8366666666667</v>
+      </c>
+      <c r="H615" t="n">
+        <v>384.8566666666667</v>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>365.6557142857143</v>
+      </c>
+      <c r="C616" t="n">
+        <v>373.09</v>
+      </c>
+      <c r="D616" t="n">
+        <v>365.11</v>
+      </c>
+      <c r="E616" t="n">
+        <v>377.4527272727273</v>
+      </c>
+      <c r="F616" t="n">
+        <v>375.2584615384616</v>
+      </c>
+      <c r="G616" t="n">
+        <v>377.45</v>
+      </c>
+      <c r="H616" t="n">
+        <v>382.05</v>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>367.8357142857143</v>
+      </c>
+      <c r="C617" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="D617" t="n">
+        <v>376.54</v>
+      </c>
+      <c r="E617" t="n">
+        <v>375.7736363636364</v>
+      </c>
+      <c r="F617" t="n">
+        <v>378.4823076923077</v>
+      </c>
+      <c r="G617" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="H617" t="n">
+        <v>390.76</v>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>362.2904761904762</v>
+      </c>
+      <c r="C618" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="D618" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="E618" t="n">
+        <v>373.1254545454545</v>
+      </c>
+      <c r="F618" t="n">
+        <v>373.8169230769231</v>
+      </c>
+      <c r="G618" t="n">
+        <v>376.6333333333333</v>
+      </c>
+      <c r="H618" t="n">
+        <v>379.4533333333333</v>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="n">
+        <v>369.7861538461539</v>
+      </c>
+      <c r="G619" t="n">
+        <v>372.51</v>
+      </c>
+      <c r="H619" t="n">
+        <v>374.93</v>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="n">
+        <v>382.21</v>
+      </c>
+      <c r="F620" t="n">
+        <v>382.9023076923077</v>
+      </c>
+      <c r="G620" t="n">
+        <v>385.9333333333333</v>
+      </c>
+      <c r="H620" t="n">
+        <v>394.1333333333333</v>
+      </c>
+      <c r="I620" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18794,7 +19011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25182,6 +25399,76 @@
       </c>
       <c r="B638" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -25355,28 +25642,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05408770449301617</v>
+        <v>0.05993012598746655</v>
       </c>
       <c r="J2" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K2" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001202016774079939</v>
+        <v>0.001502810378018693</v>
       </c>
       <c r="M2" t="n">
-        <v>8.838249838729933</v>
+        <v>8.795943451883169</v>
       </c>
       <c r="N2" t="n">
-        <v>135.0053952223641</v>
+        <v>134.0331120499126</v>
       </c>
       <c r="O2" t="n">
-        <v>11.61918220970668</v>
+        <v>11.57726703716868</v>
       </c>
       <c r="P2" t="n">
-        <v>365.2803235902234</v>
+        <v>365.2235501230085</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25433,28 +25720,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01587542415005784</v>
+        <v>-0.009101384532444946</v>
       </c>
       <c r="J3" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001826686442686354</v>
+        <v>6.066184220443471e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.779791415256481</v>
+        <v>6.779962211045557</v>
       </c>
       <c r="N3" t="n">
-        <v>76.44391439087202</v>
+        <v>76.50160546540907</v>
       </c>
       <c r="O3" t="n">
-        <v>8.743221053528957</v>
+        <v>8.746519620135146</v>
       </c>
       <c r="P3" t="n">
-        <v>376.3718819997834</v>
+        <v>376.3056081601782</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25511,28 +25798,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02679202459130396</v>
+        <v>0.02749746455570933</v>
       </c>
       <c r="J4" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004468238783071898</v>
+        <v>0.0004777296193411162</v>
       </c>
       <c r="M4" t="n">
-        <v>7.395489809115041</v>
+        <v>7.389518804374497</v>
       </c>
       <c r="N4" t="n">
-        <v>87.91870080760613</v>
+        <v>87.61782205512989</v>
       </c>
       <c r="O4" t="n">
-        <v>9.376497256844164</v>
+        <v>9.360439202042279</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5737251960491</v>
+        <v>371.5668180255263</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25589,28 +25876,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03543731455052357</v>
+        <v>-0.03356122640969227</v>
       </c>
       <c r="J5" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K5" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009013139826874461</v>
+        <v>0.0008280531746059916</v>
       </c>
       <c r="M5" t="n">
-        <v>6.36191485984064</v>
+        <v>6.32362335384555</v>
       </c>
       <c r="N5" t="n">
-        <v>75.17003306713059</v>
+        <v>74.41507414400672</v>
       </c>
       <c r="O5" t="n">
-        <v>8.670065343878937</v>
+        <v>8.626417225245179</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7876379958206</v>
+        <v>378.7691995077112</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25667,28 +25954,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05626408625691896</v>
+        <v>-0.05890378307150091</v>
       </c>
       <c r="J6" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002401976449445398</v>
+        <v>0.002697576289466652</v>
       </c>
       <c r="M6" t="n">
-        <v>6.447783549024624</v>
+        <v>6.418498309533354</v>
       </c>
       <c r="N6" t="n">
-        <v>70.05445279052205</v>
+        <v>69.43998911312107</v>
       </c>
       <c r="O6" t="n">
-        <v>8.369853809387715</v>
+        <v>8.333066009166199</v>
       </c>
       <c r="P6" t="n">
-        <v>379.6798068735339</v>
+        <v>379.7061673425661</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25745,28 +26032,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01236969175574659</v>
+        <v>0.01697794493513119</v>
       </c>
       <c r="J7" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K7" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001125037414284602</v>
+        <v>0.0002171008312418232</v>
       </c>
       <c r="M7" t="n">
-        <v>6.576395972110889</v>
+        <v>6.547935036714418</v>
       </c>
       <c r="N7" t="n">
-        <v>72.02905977893788</v>
+        <v>71.38961646886922</v>
       </c>
       <c r="O7" t="n">
-        <v>8.486993565388033</v>
+        <v>8.449237626488511</v>
       </c>
       <c r="P7" t="n">
-        <v>378.685727670276</v>
+        <v>378.6389341430395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25823,28 +26110,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01556370915292383</v>
+        <v>0.01099240492023739</v>
       </c>
       <c r="J8" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K8" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001714272693517094</v>
+        <v>8.75376927071958e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.394168529237815</v>
+        <v>6.382832883577089</v>
       </c>
       <c r="N8" t="n">
-        <v>74.64298065326557</v>
+        <v>74.14784181755864</v>
       </c>
       <c r="O8" t="n">
-        <v>8.639616927460706</v>
+        <v>8.610914110450681</v>
       </c>
       <c r="P8" t="n">
-        <v>386.2305508387428</v>
+        <v>386.2767507699342</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25882,7 +26169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I613"/>
+  <dimension ref="A1:I620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50909,6 +51196,307 @@
         </is>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.55622366673311,174.70761731698292</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.556891704731726,174.7073549947487</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.55759560977438,174.70734399813495</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.558285290947715,174.70760839141514</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.558995860321176,174.70770910229535</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.55968489239119,174.70796839721976</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.56036387241511,174.70827462592203</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.55621068512282,174.70754509210195</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.55690514482937,174.70758507884926</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.557578461492916,174.7075418212732</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.55828489094255,174.70761123274394</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.55897539744082,174.7078194350046</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.559669774662495,174.7080437832186</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.56037360251677,174.70822539947451</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.5561967655395,174.70746764898536</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.556891203566906,174.70734641534278</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.55759840199596,174.70731178660938</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.558291747359874,174.70756252996264</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.55899584012861,174.70770921117085</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-36.559690182860415,174.70794201572667</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-36.56037962215817,174.70819494489862</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.55620103801241,174.70749141932038</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.556897451811146,174.70745337937103</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.557587396741475,174.70743874443437</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.55829434879327,174.7075440513166</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.558989330352674,174.70774431094867</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.55967322434967,174.7080265810471</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-36.560360941226996,174.70828945534157</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.55619017016831,174.70743095502826</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.55689102783365,174.70734340697965</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.55759600453727,174.70733944409184</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.55829845164375,174.7075149076777</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.558998750962836,174.70769351635047</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.55969195842757,174.70793316166308</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.56038519139203,174.70816676898608</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.55900689010431,174.70764963114704</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.55970092321999,174.7078884576701</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.560394892853054,174.7081176871872</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.55828437685129,174.70761488445171</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-36.55898040521741,174.707792433898</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-36.55967173866538,174.70803398954553</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-36.56035370618904,174.70832605868418</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I620"/>
+  <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18997,6 +18997,72 @@
       <c r="I620" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>363.0185714285714</v>
+      </c>
+      <c r="C621" t="n">
+        <v>377.45</v>
+      </c>
+      <c r="D621" t="n">
+        <v>370.53</v>
+      </c>
+      <c r="E621" t="n">
+        <v>387.0627272727273</v>
+      </c>
+      <c r="F621" t="n">
+        <v>378.0953846153847</v>
+      </c>
+      <c r="G621" t="n">
+        <v>384.29</v>
+      </c>
+      <c r="H621" t="n">
+        <v>390.02</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>356.4723809523809</v>
+      </c>
+      <c r="C622" t="n">
+        <v>376.62</v>
+      </c>
+      <c r="D622" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="E622" t="n">
+        <v>384.5536363636364</v>
+      </c>
+      <c r="F622" t="n">
+        <v>376.4261538461539</v>
+      </c>
+      <c r="G622" t="n">
+        <v>382.7666666666667</v>
+      </c>
+      <c r="H622" t="n">
+        <v>387.9066666666667</v>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19011,7 +19077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25469,6 +25535,26 @@
       </c>
       <c r="B645" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -25642,28 +25728,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05993012598746655</v>
+        <v>0.05424679070934964</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K2" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001502810378018693</v>
+        <v>0.001240101835330631</v>
       </c>
       <c r="M2" t="n">
-        <v>8.795943451883169</v>
+        <v>8.790091756367328</v>
       </c>
       <c r="N2" t="n">
-        <v>134.0331120499126</v>
+        <v>133.7163717840116</v>
       </c>
       <c r="O2" t="n">
-        <v>11.57726703716868</v>
+        <v>11.56357954026397</v>
       </c>
       <c r="P2" t="n">
-        <v>365.2235501230085</v>
+        <v>365.2794358558236</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25720,28 +25806,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.009101384532444946</v>
+        <v>-0.008339863313570551</v>
       </c>
       <c r="J3" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>6.066184220443471e-05</v>
+        <v>5.13696781717643e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.779962211045557</v>
+        <v>6.755916857853217</v>
       </c>
       <c r="N3" t="n">
-        <v>76.50160546540907</v>
+        <v>76.18869587740639</v>
       </c>
       <c r="O3" t="n">
-        <v>8.746519620135146</v>
+        <v>8.728613628601417</v>
       </c>
       <c r="P3" t="n">
-        <v>376.3056081601782</v>
+        <v>376.2981090562185</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25798,28 +25884,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02749746455570933</v>
+        <v>0.02657351051516755</v>
       </c>
       <c r="J4" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004777296193411162</v>
+        <v>0.0004500374664340168</v>
       </c>
       <c r="M4" t="n">
-        <v>7.389518804374497</v>
+        <v>7.363537131371447</v>
       </c>
       <c r="N4" t="n">
-        <v>87.61782205512989</v>
+        <v>87.26631445666946</v>
       </c>
       <c r="O4" t="n">
-        <v>9.360439202042279</v>
+        <v>9.341644098159032</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5668180255263</v>
+        <v>371.5759169724806</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25876,28 +25962,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03356122640969227</v>
+        <v>-0.02733943277865602</v>
       </c>
       <c r="J5" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K5" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008280531746059916</v>
+        <v>0.0005524872179267781</v>
       </c>
       <c r="M5" t="n">
-        <v>6.32362335384555</v>
+        <v>6.328729910644409</v>
       </c>
       <c r="N5" t="n">
-        <v>74.41507414400672</v>
+        <v>74.3704771547349</v>
       </c>
       <c r="O5" t="n">
-        <v>8.626417225245179</v>
+        <v>8.623831929875193</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7691995077112</v>
+        <v>378.7074533369828</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25954,28 +26040,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05890378307150091</v>
+        <v>-0.05962564613623175</v>
       </c>
       <c r="J6" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K6" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002697576289466652</v>
+        <v>0.002786944506096067</v>
       </c>
       <c r="M6" t="n">
-        <v>6.418498309533354</v>
+        <v>6.396429467086787</v>
       </c>
       <c r="N6" t="n">
-        <v>69.43998911312107</v>
+        <v>69.17107241803851</v>
       </c>
       <c r="O6" t="n">
-        <v>8.333066009166199</v>
+        <v>8.316914837729103</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7061673425661</v>
+        <v>379.713420426647</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26032,28 +26118,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01697794493513119</v>
+        <v>0.02055300598214536</v>
       </c>
       <c r="J7" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K7" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002171008312418232</v>
+        <v>0.0003204421400861968</v>
       </c>
       <c r="M7" t="n">
-        <v>6.547935036714418</v>
+        <v>6.539307468715835</v>
       </c>
       <c r="N7" t="n">
-        <v>71.38961646886922</v>
+        <v>71.17609322008252</v>
       </c>
       <c r="O7" t="n">
-        <v>8.449237626488511</v>
+        <v>8.436592512388074</v>
       </c>
       <c r="P7" t="n">
-        <v>378.6389341430395</v>
+        <v>378.6024042467306</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26110,28 +26196,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01099240492023739</v>
+        <v>0.01300813517630374</v>
       </c>
       <c r="J8" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K8" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>8.75376927071958e-05</v>
+        <v>0.0001236336605867638</v>
       </c>
       <c r="M8" t="n">
-        <v>6.382832883577089</v>
+        <v>6.365689316922011</v>
       </c>
       <c r="N8" t="n">
-        <v>74.14784181755864</v>
+        <v>73.85885706186801</v>
       </c>
       <c r="O8" t="n">
-        <v>8.610914110450681</v>
+        <v>8.594117584829057</v>
       </c>
       <c r="P8" t="n">
-        <v>386.2767507699342</v>
+        <v>386.2563003840524</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26169,7 +26255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I620"/>
+  <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51497,6 +51583,100 @@
         </is>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.55619159712875,174.70743889404864</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.55689404132312,174.70739499483727</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.55759318342309,174.70737198883776</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.558276858430226,174.70766828942095</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.55899011165058,174.70774009830564</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.55967531155419,174.7080161730098</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-36.560362528358326,174.70828142575357</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.55617876753118,174.70736751556726</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.556893501109606,174.70738574690577</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.55759205690064,174.70738498452053</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.55828074581462,174.70764067651206</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.55899348225819,174.7077219244769</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.559678623540066,174.70799965747713</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-36.56036706097376,174.70825849440575</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I622"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19063,6 +19063,72 @@
       <c r="I622" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>344.4795238095238</v>
+      </c>
+      <c r="C623" t="n">
+        <v>369.4500000000001</v>
+      </c>
+      <c r="D623" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="E623" t="n">
+        <v>379.6872727272727</v>
+      </c>
+      <c r="F623" t="n">
+        <v>382.4961538461538</v>
+      </c>
+      <c r="G623" t="n">
+        <v>395.3966666666667</v>
+      </c>
+      <c r="H623" t="n">
+        <v>409.2166666666667</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>345.9147619047619</v>
+      </c>
+      <c r="C624" t="n">
+        <v>369.32</v>
+      </c>
+      <c r="D624" t="n">
+        <v>363.82</v>
+      </c>
+      <c r="E624" t="n">
+        <v>381.0454545454546</v>
+      </c>
+      <c r="F624" t="n">
+        <v>375.7930769230769</v>
+      </c>
+      <c r="G624" t="n">
+        <v>381.3333333333333</v>
+      </c>
+      <c r="H624" t="n">
+        <v>385.2233333333333</v>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19077,7 +19143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25555,6 +25621,26 @@
       </c>
       <c r="B647" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -25728,28 +25814,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05424679070934964</v>
+        <v>0.03701392550726955</v>
       </c>
       <c r="J2" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001240101835330631</v>
+        <v>0.0005744587860615491</v>
       </c>
       <c r="M2" t="n">
-        <v>8.790091756367328</v>
+        <v>8.849487608731513</v>
       </c>
       <c r="N2" t="n">
-        <v>133.7163717840116</v>
+        <v>135.0800840369177</v>
       </c>
       <c r="O2" t="n">
-        <v>11.56357954026397</v>
+        <v>11.62239579591565</v>
       </c>
       <c r="P2" t="n">
-        <v>365.2794358558236</v>
+        <v>365.4492842771527</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25806,28 +25892,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.008339863313570551</v>
+        <v>-0.0135945833959586</v>
       </c>
       <c r="J3" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L3" t="n">
-        <v>5.13696781717643e-05</v>
+        <v>0.0001373170511062005</v>
       </c>
       <c r="M3" t="n">
-        <v>6.755916857853217</v>
+        <v>6.754740218809191</v>
       </c>
       <c r="N3" t="n">
-        <v>76.18869587740639</v>
+        <v>76.05690324686388</v>
       </c>
       <c r="O3" t="n">
-        <v>8.728613628601417</v>
+        <v>8.721060901453669</v>
       </c>
       <c r="P3" t="n">
-        <v>376.2981090562185</v>
+        <v>376.3500268172708</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25884,28 +25970,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02657351051516755</v>
+        <v>0.02439707579807164</v>
       </c>
       <c r="J4" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004500374664340168</v>
+        <v>0.0003819417033973371</v>
       </c>
       <c r="M4" t="n">
-        <v>7.363537131371447</v>
+        <v>7.355548092522816</v>
       </c>
       <c r="N4" t="n">
-        <v>87.26631445666946</v>
+        <v>87.07335723792467</v>
       </c>
       <c r="O4" t="n">
-        <v>9.341644098159032</v>
+        <v>9.3313105852246</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5759169724806</v>
+        <v>371.5974440094568</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25962,28 +26048,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02733943277865602</v>
+        <v>-0.02548929795428076</v>
       </c>
       <c r="J5" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K5" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005524872179267781</v>
+        <v>0.0004842292436506579</v>
       </c>
       <c r="M5" t="n">
-        <v>6.328729910644409</v>
+        <v>6.312570034340423</v>
       </c>
       <c r="N5" t="n">
-        <v>74.3704771547349</v>
+        <v>74.09750802798474</v>
       </c>
       <c r="O5" t="n">
-        <v>8.623831929875193</v>
+        <v>8.60799094028245</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7074533369828</v>
+        <v>378.6890366391108</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26040,28 +26126,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05962564613623175</v>
+        <v>-0.05887426309460869</v>
       </c>
       <c r="J6" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002786944506096067</v>
+        <v>0.002738189453903139</v>
       </c>
       <c r="M6" t="n">
-        <v>6.396429467086787</v>
+        <v>6.384737223558126</v>
       </c>
       <c r="N6" t="n">
-        <v>69.17107241803851</v>
+        <v>68.94620007518269</v>
       </c>
       <c r="O6" t="n">
-        <v>8.316914837729103</v>
+        <v>8.303384856501756</v>
       </c>
       <c r="P6" t="n">
-        <v>379.713420426647</v>
+        <v>379.7058708700872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26118,28 +26204,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02055300598214536</v>
+        <v>0.02791185185121941</v>
       </c>
       <c r="J7" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K7" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003204421400861968</v>
+        <v>0.0005911795823431154</v>
       </c>
       <c r="M7" t="n">
-        <v>6.539307468715835</v>
+        <v>6.550223223803411</v>
       </c>
       <c r="N7" t="n">
-        <v>71.17609322008252</v>
+        <v>71.43508167918648</v>
       </c>
       <c r="O7" t="n">
-        <v>8.436592512388074</v>
+        <v>8.451927690130015</v>
       </c>
       <c r="P7" t="n">
-        <v>378.6024042467306</v>
+        <v>378.5270191102209</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26196,28 +26282,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01300813517630374</v>
+        <v>0.02185246424280117</v>
       </c>
       <c r="J8" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001236336605867638</v>
+        <v>0.0003467942776186339</v>
       </c>
       <c r="M8" t="n">
-        <v>6.365689316922011</v>
+        <v>6.39008957702338</v>
       </c>
       <c r="N8" t="n">
-        <v>73.85885706186801</v>
+        <v>74.63460140768329</v>
       </c>
       <c r="O8" t="n">
-        <v>8.594117584829057</v>
+        <v>8.639131982304894</v>
       </c>
       <c r="P8" t="n">
-        <v>386.2563003840524</v>
+        <v>386.1663381674256</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26255,7 +26341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I622"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28080,7 +28166,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.55760097275784,174.70728212978867</t>
+          <t>-36.55760097275783,174.70728212978867</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -45213,7 +45299,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>-36.558301544622154,174.70749293739365</t>
+          <t>-36.55830154462215,174.70749293739365</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -51677,6 +51763,100 @@
         </is>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-36.55615526313301,174.70723674767098</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-36.55688883441575,174.7073058581522</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-36.557588677324794,174.70742397156624</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-36.558288285350464,174.7075871214668</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-36.55898122534899,174.70778801188013</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-36.55965116370284,174.70813658818298</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-36.56032135571094,174.70848972472726</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.55615807601565,174.70725239723785</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.55688874980295,174.70730440968117</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.55759964405037,174.7072974580334</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.55828618109981,174.70760206845796</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.55899476060312,174.70771503182164</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.559681739848564,174.70798411769667</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-36.560372816102245,174.70822937810044</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19129,6 +19129,39 @@
       <c r="I624" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>361.9485714285714</v>
+      </c>
+      <c r="C625" t="n">
+        <v>375.25</v>
+      </c>
+      <c r="D625" t="n">
+        <v>388.36</v>
+      </c>
+      <c r="E625" t="n">
+        <v>379.0118181818182</v>
+      </c>
+      <c r="F625" t="n">
+        <v>386.7</v>
+      </c>
+      <c r="G625" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="H625" t="n">
+        <v>396.41</v>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19143,7 +19176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B649"/>
+  <dimension ref="A1:B650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25641,6 +25674,16 @@
       </c>
       <c r="B649" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -25814,28 +25857,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03701392550726955</v>
+        <v>0.03523142152121644</v>
       </c>
       <c r="J2" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K2" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005744587860615491</v>
+        <v>0.0005225801637690486</v>
       </c>
       <c r="M2" t="n">
-        <v>8.849487608731513</v>
+        <v>8.84105773967112</v>
       </c>
       <c r="N2" t="n">
-        <v>135.0800840369177</v>
+        <v>134.8367972547246</v>
       </c>
       <c r="O2" t="n">
-        <v>11.62239579591565</v>
+        <v>11.61192478681827</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4492842771527</v>
+        <v>365.4668817214878</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25892,28 +25935,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0135945833959586</v>
+        <v>-0.01388699046908962</v>
       </c>
       <c r="J3" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K3" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001373170511062005</v>
+        <v>0.0001438902610015891</v>
       </c>
       <c r="M3" t="n">
-        <v>6.754740218809191</v>
+        <v>6.742293243395287</v>
       </c>
       <c r="N3" t="n">
-        <v>76.05690324686388</v>
+        <v>75.90123059927811</v>
       </c>
       <c r="O3" t="n">
-        <v>8.721060901453669</v>
+        <v>8.712131231752544</v>
       </c>
       <c r="P3" t="n">
-        <v>376.3500268172708</v>
+        <v>376.3529205470401</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25970,28 +26013,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02439707579807164</v>
+        <v>0.03074905640228174</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K4" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003819417033973371</v>
+        <v>0.0006055269515685691</v>
       </c>
       <c r="M4" t="n">
-        <v>7.355548092522816</v>
+        <v>7.376651971412231</v>
       </c>
       <c r="N4" t="n">
-        <v>87.07335723792467</v>
+        <v>87.42188491498032</v>
       </c>
       <c r="O4" t="n">
-        <v>9.3313105852246</v>
+        <v>9.349967107695102</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5974440094568</v>
+        <v>371.5345862685166</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26048,28 +26091,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02548929795428076</v>
+        <v>-0.02510627313368386</v>
       </c>
       <c r="J5" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004842292436506579</v>
+        <v>0.0004717735490472608</v>
       </c>
       <c r="M5" t="n">
-        <v>6.312570034340423</v>
+        <v>6.301887151585749</v>
       </c>
       <c r="N5" t="n">
-        <v>74.09750802798474</v>
+        <v>73.95181726984346</v>
       </c>
       <c r="O5" t="n">
-        <v>8.60799094028245</v>
+        <v>8.599524246715248</v>
       </c>
       <c r="P5" t="n">
-        <v>378.6890366391108</v>
+        <v>378.6852185608368</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26126,28 +26169,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05887426309460869</v>
+        <v>-0.05558723846282255</v>
       </c>
       <c r="J6" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K6" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002738189453903139</v>
+        <v>0.002446803304986145</v>
       </c>
       <c r="M6" t="n">
-        <v>6.384737223558126</v>
+        <v>6.390239644339885</v>
       </c>
       <c r="N6" t="n">
-        <v>68.94620007518269</v>
+        <v>68.95248834939136</v>
       </c>
       <c r="O6" t="n">
-        <v>8.303384856501756</v>
+        <v>8.303763505145806</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7058708700872</v>
+        <v>379.6727340346857</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26204,28 +26247,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02791185185121941</v>
+        <v>0.02832933146661372</v>
       </c>
       <c r="J7" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K7" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005911795823431154</v>
+        <v>0.0006115089926856943</v>
       </c>
       <c r="M7" t="n">
-        <v>6.550223223803411</v>
+        <v>6.538807377271168</v>
       </c>
       <c r="N7" t="n">
-        <v>71.43508167918648</v>
+        <v>71.28945031199669</v>
       </c>
       <c r="O7" t="n">
-        <v>8.451927690130015</v>
+        <v>8.443308019490743</v>
       </c>
       <c r="P7" t="n">
-        <v>378.5270191102209</v>
+        <v>378.5227338290834</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26282,28 +26325,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02185246424280117</v>
+        <v>0.02587031999364766</v>
       </c>
       <c r="J8" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K8" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003467942776186339</v>
+        <v>0.0004868271880686947</v>
       </c>
       <c r="M8" t="n">
-        <v>6.39008957702338</v>
+        <v>6.397320429339702</v>
       </c>
       <c r="N8" t="n">
-        <v>74.63460140768329</v>
+        <v>74.67384907044381</v>
       </c>
       <c r="O8" t="n">
-        <v>8.639131982304894</v>
+        <v>8.641403188744512</v>
       </c>
       <c r="P8" t="n">
-        <v>386.1663381674256</v>
+        <v>386.125381610731</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26341,7 +26384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51857,6 +51900,53 @@
         </is>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.55618950008467,174.70742722695994</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.55689260943027,174.70737048224797</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.55757601583833,174.70757003411012</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.55828933184122,174.70757968798958</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.55897273666872,174.70783378143477</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.55968398648835,174.70797291459832</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.560348823247075,174.70835076231944</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19160,6 +19160,66 @@
         <v>396.41</v>
       </c>
       <c r="I625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>350.382380952381</v>
+      </c>
+      <c r="C626" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="D626" t="n">
+        <v>358.47</v>
+      </c>
+      <c r="E626" t="n">
+        <v>359.7463636363636</v>
+      </c>
+      <c r="F626" t="n">
+        <v>363.9592307692308</v>
+      </c>
+      <c r="G626" t="n">
+        <v>370.3866666666667</v>
+      </c>
+      <c r="H626" t="n">
+        <v>374.3666666666667</v>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>365.1757142857143</v>
+      </c>
+      <c r="C627" t="n">
+        <v>364.67</v>
+      </c>
+      <c r="D627" t="n">
+        <v>373.88</v>
+      </c>
+      <c r="E627" t="n">
+        <v>370.3536363636364</v>
+      </c>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19176,7 +19236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B650"/>
+  <dimension ref="A1:B652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25684,6 +25744,26 @@
       </c>
       <c r="B650" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -25857,28 +25937,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03523142152121644</v>
+        <v>0.02841266188971625</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005225801637690486</v>
+        <v>0.0003415162399775795</v>
       </c>
       <c r="M2" t="n">
-        <v>8.84105773967112</v>
+        <v>8.842830005923787</v>
       </c>
       <c r="N2" t="n">
-        <v>134.8367972547246</v>
+        <v>134.8071011816975</v>
       </c>
       <c r="O2" t="n">
-        <v>11.61192478681827</v>
+        <v>11.6106460277496</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4668817214878</v>
+        <v>365.5343539968219</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25935,28 +26015,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01388699046908962</v>
+        <v>-0.02769426883343896</v>
       </c>
       <c r="J3" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001438902610015891</v>
+        <v>0.0005659795454759919</v>
       </c>
       <c r="M3" t="n">
-        <v>6.742293243395287</v>
+        <v>6.78383560603537</v>
       </c>
       <c r="N3" t="n">
-        <v>75.90123059927811</v>
+        <v>77.04332924559101</v>
       </c>
       <c r="O3" t="n">
-        <v>8.712131231752544</v>
+        <v>8.777432953067258</v>
       </c>
       <c r="P3" t="n">
-        <v>376.3529205470401</v>
+        <v>376.4899492861924</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26013,28 +26093,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03074905640228174</v>
+        <v>0.02594292613089688</v>
       </c>
       <c r="J4" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006055269515685691</v>
+        <v>0.0004328710766992039</v>
       </c>
       <c r="M4" t="n">
-        <v>7.376651971412231</v>
+        <v>7.375519234243272</v>
       </c>
       <c r="N4" t="n">
-        <v>87.42188491498032</v>
+        <v>87.45988237081819</v>
       </c>
       <c r="O4" t="n">
-        <v>9.349967107695102</v>
+        <v>9.351998843606546</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5345862685166</v>
+        <v>371.582233083062</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26091,28 +26171,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02510627313368386</v>
+        <v>-0.03514871903556358</v>
       </c>
       <c r="J5" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004717735490472608</v>
+        <v>0.0009224462836293634</v>
       </c>
       <c r="M5" t="n">
-        <v>6.301887151585749</v>
+        <v>6.330610879616791</v>
       </c>
       <c r="N5" t="n">
-        <v>73.95181726984346</v>
+        <v>74.43062409243417</v>
       </c>
       <c r="O5" t="n">
-        <v>8.599524246715248</v>
+        <v>8.627318476353715</v>
       </c>
       <c r="P5" t="n">
-        <v>378.6852185608368</v>
+        <v>378.7855911699122</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26169,28 +26249,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05558723846282255</v>
+        <v>-0.06108188976753488</v>
       </c>
       <c r="J6" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002446803304986145</v>
+        <v>0.002948207100700428</v>
       </c>
       <c r="M6" t="n">
-        <v>6.390239644339885</v>
+        <v>6.403384426393868</v>
       </c>
       <c r="N6" t="n">
-        <v>68.95248834939136</v>
+        <v>69.21468605665632</v>
       </c>
       <c r="O6" t="n">
-        <v>8.303763505145806</v>
+        <v>8.319536408758383</v>
       </c>
       <c r="P6" t="n">
-        <v>379.6727340346857</v>
+        <v>379.7282401934253</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26247,28 +26327,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02832933146661372</v>
+        <v>0.02480849530313312</v>
       </c>
       <c r="J7" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K7" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006115089926856943</v>
+        <v>0.000469913648530329</v>
       </c>
       <c r="M7" t="n">
-        <v>6.538807377271168</v>
+        <v>6.543745174092026</v>
       </c>
       <c r="N7" t="n">
-        <v>71.28945031199669</v>
+        <v>71.30375197368625</v>
       </c>
       <c r="O7" t="n">
-        <v>8.443308019490743</v>
+        <v>8.444154899910721</v>
       </c>
       <c r="P7" t="n">
-        <v>378.5227338290834</v>
+        <v>378.5589505574046</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26325,28 +26405,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02587031999364766</v>
+        <v>0.02072201078354345</v>
       </c>
       <c r="J8" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K8" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004868271880686947</v>
+        <v>0.0003124114404615685</v>
       </c>
       <c r="M8" t="n">
-        <v>6.397320429339702</v>
+        <v>6.409727141558512</v>
       </c>
       <c r="N8" t="n">
-        <v>74.67384907044381</v>
+        <v>74.84156847133526</v>
       </c>
       <c r="O8" t="n">
-        <v>8.641403188744512</v>
+        <v>8.651102153560277</v>
       </c>
       <c r="P8" t="n">
-        <v>386.125381610731</v>
+        <v>386.1779706001827</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26384,7 +26464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51947,6 +52027,88 @@
         </is>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.5561668319628,174.70730111132434</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.55687731389509,174.70710864326955</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.55760479518796,174.70723803331322</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.55831917987463,174.70736766872017</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.55901865610604,174.7075861902106</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.55970553968304,174.7078654370971</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.56039610106603,174.70811157456728</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.55619582481088,174.70746241515047</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.55688572325662,174.7072525989873</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.5575899579063,174.70740919869752</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.55830274603755,174.70748440339844</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I627"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19220,6 +19220,105 @@
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>356.6657142857143</v>
+      </c>
+      <c r="C628" t="n">
+        <v>372.02</v>
+      </c>
+      <c r="D628" t="n">
+        <v>371.64</v>
+      </c>
+      <c r="E628" t="n">
+        <v>382.3272727272728</v>
+      </c>
+      <c r="F628" t="n">
+        <v>377.4107692307692</v>
+      </c>
+      <c r="G628" t="n">
+        <v>378.88</v>
+      </c>
+      <c r="H628" t="n">
+        <v>386.51</v>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>356.4980952380952</v>
+      </c>
+      <c r="C629" t="n">
+        <v>370.97</v>
+      </c>
+      <c r="D629" t="n">
+        <v>371.08</v>
+      </c>
+      <c r="E629" t="n">
+        <v>381.5654545454545</v>
+      </c>
+      <c r="F629" t="n">
+        <v>378.3492307692308</v>
+      </c>
+      <c r="G629" t="n">
+        <v>381.4766666666667</v>
+      </c>
+      <c r="H629" t="n">
+        <v>388.8166666666667</v>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>363.7071428571429</v>
+      </c>
+      <c r="C630" t="n">
+        <v>363.02</v>
+      </c>
+      <c r="D630" t="n">
+        <v>373</v>
+      </c>
+      <c r="E630" t="n">
+        <v>372.4663636363636</v>
+      </c>
+      <c r="F630" t="n">
+        <v>377.7146153846153</v>
+      </c>
+      <c r="G630" t="n">
+        <v>377.24</v>
+      </c>
+      <c r="H630" t="n">
+        <v>386.98</v>
+      </c>
+      <c r="I630" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19236,7 +19335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25764,6 +25863,36 @@
       </c>
       <c r="B652" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -25937,28 +26066,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02841266188971625</v>
+        <v>0.01981860300882003</v>
       </c>
       <c r="J2" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003415162399775795</v>
+        <v>0.0001678361438185449</v>
       </c>
       <c r="M2" t="n">
-        <v>8.842830005923787</v>
+        <v>8.835858085733005</v>
       </c>
       <c r="N2" t="n">
-        <v>134.8071011816975</v>
+        <v>134.3624621345004</v>
       </c>
       <c r="O2" t="n">
-        <v>11.6106460277496</v>
+        <v>11.59148230963152</v>
       </c>
       <c r="P2" t="n">
-        <v>365.5343539968219</v>
+        <v>365.6197068295797</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26015,28 +26144,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02769426883343896</v>
+        <v>-0.03586979620193397</v>
       </c>
       <c r="J3" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005659795454759919</v>
+        <v>0.0009560518942499652</v>
       </c>
       <c r="M3" t="n">
-        <v>6.78383560603537</v>
+        <v>6.783033534303447</v>
       </c>
       <c r="N3" t="n">
-        <v>77.04332924559101</v>
+        <v>76.97327276123036</v>
       </c>
       <c r="O3" t="n">
-        <v>8.777432953067258</v>
+        <v>8.773441329445953</v>
       </c>
       <c r="P3" t="n">
-        <v>376.4899492861924</v>
+        <v>376.5714070356262</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26093,28 +26222,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02594292613089688</v>
+        <v>0.02553725487644899</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004328710766992039</v>
+        <v>0.0004248028483380129</v>
       </c>
       <c r="M4" t="n">
-        <v>7.375519234243272</v>
+        <v>7.335883947335493</v>
       </c>
       <c r="N4" t="n">
-        <v>87.45988237081819</v>
+        <v>86.93660600908535</v>
       </c>
       <c r="O4" t="n">
-        <v>9.351998843606546</v>
+        <v>9.323980159196251</v>
       </c>
       <c r="P4" t="n">
-        <v>371.582233083062</v>
+        <v>371.5862666889482</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26171,28 +26300,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03514871903556358</v>
+        <v>-0.03410607956120153</v>
       </c>
       <c r="J5" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009224462836293634</v>
+        <v>0.0008781103637169885</v>
       </c>
       <c r="M5" t="n">
-        <v>6.330610879616791</v>
+        <v>6.319526763556323</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43062409243417</v>
+        <v>74.11379633754122</v>
       </c>
       <c r="O5" t="n">
-        <v>8.627318476353715</v>
+        <v>8.608937003924538</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7855911699122</v>
+        <v>378.7751741693065</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26249,28 +26378,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06108188976753488</v>
+        <v>-0.06143921485358164</v>
       </c>
       <c r="J6" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002948207100700428</v>
+        <v>0.003019926483525781</v>
       </c>
       <c r="M6" t="n">
-        <v>6.403384426393868</v>
+        <v>6.368361898300755</v>
       </c>
       <c r="N6" t="n">
-        <v>69.21468605665632</v>
+        <v>68.81059148031648</v>
       </c>
       <c r="O6" t="n">
-        <v>8.319536408758383</v>
+        <v>8.295214974930817</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7282401934253</v>
+        <v>379.7318629032962</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26327,28 +26456,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02480849530313312</v>
+        <v>0.02480000089327013</v>
       </c>
       <c r="J7" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000469913648530329</v>
+        <v>0.000475371943268299</v>
       </c>
       <c r="M7" t="n">
-        <v>6.543745174092026</v>
+        <v>6.51280137492968</v>
       </c>
       <c r="N7" t="n">
-        <v>71.30375197368625</v>
+        <v>70.88325472970924</v>
       </c>
       <c r="O7" t="n">
-        <v>8.444154899910721</v>
+        <v>8.419219365814698</v>
       </c>
       <c r="P7" t="n">
-        <v>378.5589505574046</v>
+        <v>378.5590453312649</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26405,28 +26534,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02072201078354345</v>
+        <v>0.02160424255932438</v>
       </c>
       <c r="J8" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003124114404615685</v>
+        <v>0.0003440414283084614</v>
       </c>
       <c r="M8" t="n">
-        <v>6.409727141558512</v>
+        <v>6.374531237624201</v>
       </c>
       <c r="N8" t="n">
-        <v>74.84156847133526</v>
+        <v>74.37637407406646</v>
       </c>
       <c r="O8" t="n">
-        <v>8.651102153560277</v>
+        <v>8.624173819796681</v>
       </c>
       <c r="P8" t="n">
-        <v>386.1779706001827</v>
+        <v>386.1689207371017</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26464,7 +26593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I627"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52109,6 +52238,147 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.5561791464375,174.70736962363875</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.55689050714205,174.70733449331127</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.557592114671046,174.70738431807527</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.55828419515875,174.70761617505525</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.55899149406602,174.70773264452356</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.55968707380455,174.7079575193717</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-36.560370056501135,174.70824333945984</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.5561788179276,174.70736779595114</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.55688982373331,174.70732279412164</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.55759265386143,174.70737809791947</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.55828537545584,174.7076077911344</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.55898959906946,174.70774286206748</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.559681428217814,174.70798567167478</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-36.560365109232954,174.70826836863003</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.55619294662779,174.7074464021087</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.55688464931538,174.70723421454835</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.557590805207354,174.70739942416753</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.558299472777776,174.70750765428267</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.55899088052215,174.70773595266283</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.5596906394349,174.70793973896753</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-36.560369048459926,174.7082484393344</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I630"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19319,6 +19319,72 @@
         <v>386.98</v>
       </c>
       <c r="I630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>352.6104761904762</v>
+      </c>
+      <c r="C631" t="n">
+        <v>363.45</v>
+      </c>
+      <c r="D631" t="n">
+        <v>362.6</v>
+      </c>
+      <c r="E631" t="n">
+        <v>368.0363636363636</v>
+      </c>
+      <c r="F631" t="n">
+        <v>369.6607692307692</v>
+      </c>
+      <c r="G631" t="n">
+        <v>369.5733333333333</v>
+      </c>
+      <c r="H631" t="n">
+        <v>373.3233333333333</v>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>367.7866666666667</v>
+      </c>
+      <c r="C632" t="n">
+        <v>372.02</v>
+      </c>
+      <c r="D632" t="n">
+        <v>367.35</v>
+      </c>
+      <c r="E632" t="n">
+        <v>380.76</v>
+      </c>
+      <c r="F632" t="n">
+        <v>380.5638461538462</v>
+      </c>
+      <c r="G632" t="n">
+        <v>382.1766666666667</v>
+      </c>
+      <c r="H632" t="n">
+        <v>388.3266666666667</v>
+      </c>
+      <c r="I632" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19335,7 +19401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25893,6 +25959,26 @@
       </c>
       <c r="B655" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -26066,28 +26152,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01981860300882003</v>
+        <v>0.01519754758578971</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K2" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001678361438185449</v>
+        <v>9.92566773463377e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.835858085733005</v>
+        <v>8.832042092014836</v>
       </c>
       <c r="N2" t="n">
-        <v>134.3624621345004</v>
+        <v>134.1879879761557</v>
       </c>
       <c r="O2" t="n">
-        <v>11.59148230963152</v>
+        <v>11.58395390081278</v>
       </c>
       <c r="P2" t="n">
-        <v>365.6197068295797</v>
+        <v>365.6657584862972</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26144,28 +26230,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03586979620193397</v>
+        <v>-0.041894872276015</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K3" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009560518942499652</v>
+        <v>0.001309063146226586</v>
       </c>
       <c r="M3" t="n">
-        <v>6.783033534303447</v>
+        <v>6.785368616190481</v>
       </c>
       <c r="N3" t="n">
-        <v>76.97327276123036</v>
+        <v>76.98558105663811</v>
       </c>
       <c r="O3" t="n">
-        <v>8.773441329445953</v>
+        <v>8.774142753376999</v>
       </c>
       <c r="P3" t="n">
-        <v>376.5714070356262</v>
+        <v>376.6316218968953</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26222,28 +26308,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02553725487644899</v>
+        <v>0.01994835529883148</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004248028483380129</v>
+        <v>0.0002607531503153737</v>
       </c>
       <c r="M4" t="n">
-        <v>7.335883947335493</v>
+        <v>7.332298677676261</v>
       </c>
       <c r="N4" t="n">
-        <v>86.93660600908535</v>
+        <v>86.82045182879352</v>
       </c>
       <c r="O4" t="n">
-        <v>9.323980159196251</v>
+        <v>9.317749289865741</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5862666889482</v>
+        <v>371.6421099995613</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26300,28 +26386,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03410607956120153</v>
+        <v>-0.03675167010969183</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K5" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008781103637169885</v>
+        <v>0.001025152263686602</v>
       </c>
       <c r="M5" t="n">
-        <v>6.319526763556323</v>
+        <v>6.320595911499149</v>
       </c>
       <c r="N5" t="n">
-        <v>74.11379633754122</v>
+        <v>74.0288064019595</v>
       </c>
       <c r="O5" t="n">
-        <v>8.608937003924538</v>
+        <v>8.603999442233798</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7751741693065</v>
+        <v>378.8017750433634</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26378,28 +26464,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06143921485358164</v>
+        <v>-0.06372063218861619</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K6" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003019926483525781</v>
+        <v>0.003267322239266401</v>
       </c>
       <c r="M6" t="n">
-        <v>6.368361898300755</v>
+        <v>6.363867304807838</v>
       </c>
       <c r="N6" t="n">
-        <v>68.81059148031648</v>
+        <v>68.69345925734369</v>
       </c>
       <c r="O6" t="n">
-        <v>8.295214974930817</v>
+        <v>8.288151739522128</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7318629032962</v>
+        <v>379.7550605507934</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26456,28 +26542,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02480000089327013</v>
+        <v>0.02220203082703386</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K7" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000475371943268299</v>
+        <v>0.0003830730366349844</v>
       </c>
       <c r="M7" t="n">
-        <v>6.51280137492968</v>
+        <v>6.511938467538747</v>
       </c>
       <c r="N7" t="n">
-        <v>70.88325472970924</v>
+        <v>70.80058937262518</v>
       </c>
       <c r="O7" t="n">
-        <v>8.419219365814698</v>
+        <v>8.414308609305056</v>
       </c>
       <c r="P7" t="n">
-        <v>378.5590453312649</v>
+        <v>378.5859481067019</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26534,28 +26620,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02160424255932438</v>
+        <v>0.01680093380185143</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K8" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003440414283084614</v>
+        <v>0.0002088446229722152</v>
       </c>
       <c r="M8" t="n">
-        <v>6.374531237624201</v>
+        <v>6.379168788814057</v>
       </c>
       <c r="N8" t="n">
-        <v>74.37637407406646</v>
+        <v>74.4452259051085</v>
       </c>
       <c r="O8" t="n">
-        <v>8.624173819796681</v>
+        <v>8.628164689266686</v>
       </c>
       <c r="P8" t="n">
-        <v>386.1689207371017</v>
+        <v>386.2183259476641</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26593,7 +26679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I630"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52379,6 +52465,100 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.55617119872958,174.70732540606392</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.556884929191256,174.7072390056445</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.5576008187049,174.70728390697647</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.55830633619552,174.70745890145798</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-36.55900714328728,174.70764826601558</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-36.5597073079974,174.70785661916884</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-36.56039833876146,174.70810025356062</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-36.55620094188649,174.7074908845138</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-36.55689050714205,174.70733449331127</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-36.55759624524626,174.70733666723626</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-36.55828662335881,174.70759892698868</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-36.55898512718485,174.707766973794</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-36.559679906299856,174.70799326086998</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-36.56036616017041,174.7082630517401</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I632"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19385,6 +19385,39 @@
         <v>388.3266666666667</v>
       </c>
       <c r="I632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>367.0180952380952</v>
+      </c>
+      <c r="C633" t="n">
+        <v>365.06</v>
+      </c>
+      <c r="D633" t="n">
+        <v>360.24</v>
+      </c>
+      <c r="E633" t="n">
+        <v>368.4009090909091</v>
+      </c>
+      <c r="F633" t="n">
+        <v>369.3969230769231</v>
+      </c>
+      <c r="G633" t="n">
+        <v>372.2166666666667</v>
+      </c>
+      <c r="H633" t="n">
+        <v>379.2966666666667</v>
+      </c>
+      <c r="I633" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19401,7 +19434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25979,6 +26012,16 @@
       </c>
       <c r="B657" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -26679,7 +26722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I632"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52559,6 +52602,53 @@
         </is>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-36.556199435602316,174.70748250414638</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-36.556885977096854,174.70725694440023</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-36.5576030909831,174.7072576934553</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.55830577140446,174.7074629133366</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-36.559007676058734,174.70764539337688</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.559701560973394,174.70788527743414</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-36.56038552740465,174.70816506902716</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -26195,28 +26195,28 @@
         <v>0.129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01519754758578971</v>
+        <v>0.01556904739632286</v>
       </c>
       <c r="J2" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L2" t="n">
-        <v>9.92566773463377e-05</v>
+        <v>0.0001046088933165379</v>
       </c>
       <c r="M2" t="n">
-        <v>8.832042092014836</v>
+        <v>8.81557697574554</v>
       </c>
       <c r="N2" t="n">
-        <v>134.1879879761557</v>
+        <v>133.9114681805083</v>
       </c>
       <c r="O2" t="n">
-        <v>11.58395390081278</v>
+        <v>11.5720122787918</v>
       </c>
       <c r="P2" t="n">
-        <v>365.6657584862972</v>
+        <v>365.6620431308399</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26273,28 +26273,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.041894872276015</v>
+        <v>-0.0458881142290539</v>
       </c>
       <c r="J3" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001309063146226586</v>
+        <v>0.001572086188752042</v>
       </c>
       <c r="M3" t="n">
-        <v>6.785368616190481</v>
+        <v>6.791450046304836</v>
       </c>
       <c r="N3" t="n">
-        <v>76.98558105663811</v>
+        <v>77.05062373847245</v>
       </c>
       <c r="O3" t="n">
-        <v>8.774142753376999</v>
+        <v>8.777848468643809</v>
       </c>
       <c r="P3" t="n">
-        <v>376.6316218968953</v>
+        <v>376.6716537272945</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26351,28 +26351,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01994835529883148</v>
+        <v>0.01537336972905105</v>
       </c>
       <c r="J4" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K4" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002607531503153737</v>
+        <v>0.0001550299917292275</v>
       </c>
       <c r="M4" t="n">
-        <v>7.332298677676261</v>
+        <v>7.338600538644409</v>
       </c>
       <c r="N4" t="n">
-        <v>86.82045182879352</v>
+        <v>86.92942326301886</v>
       </c>
       <c r="O4" t="n">
-        <v>9.317749289865741</v>
+        <v>9.323594975277448</v>
       </c>
       <c r="P4" t="n">
-        <v>371.6421099995613</v>
+        <v>371.6879534708905</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26429,28 +26429,28 @@
         <v>0.0588</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03675167010969183</v>
+        <v>-0.04033701832124209</v>
       </c>
       <c r="J5" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K5" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001025152263686602</v>
+        <v>0.001236912649079436</v>
       </c>
       <c r="M5" t="n">
-        <v>6.320595911499149</v>
+        <v>6.327863448028277</v>
       </c>
       <c r="N5" t="n">
-        <v>74.0288064019595</v>
+        <v>74.05727779828528</v>
       </c>
       <c r="O5" t="n">
-        <v>8.603999442233798</v>
+        <v>8.605653827472105</v>
       </c>
       <c r="P5" t="n">
-        <v>378.8017750433634</v>
+        <v>378.8379583679982</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26507,28 +26507,28 @@
         <v>0.0687</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06372063218861619</v>
+        <v>-0.0670125438159601</v>
       </c>
       <c r="J6" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003267322239266401</v>
+        <v>0.003619587563185478</v>
       </c>
       <c r="M6" t="n">
-        <v>6.363867304807838</v>
+        <v>6.367171908927822</v>
       </c>
       <c r="N6" t="n">
-        <v>68.69345925734369</v>
+        <v>68.70583095933212</v>
       </c>
       <c r="O6" t="n">
-        <v>8.288151739522128</v>
+        <v>8.288898054586756</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7550605507934</v>
+        <v>379.7886551590722</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26585,28 +26585,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02220203082703386</v>
+        <v>0.01948852790877066</v>
       </c>
       <c r="J7" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K7" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003830730366349844</v>
+        <v>0.0002959965892982419</v>
       </c>
       <c r="M7" t="n">
-        <v>6.511938467538747</v>
+        <v>6.512747197774524</v>
       </c>
       <c r="N7" t="n">
-        <v>70.80058937262518</v>
+        <v>70.75407875228248</v>
       </c>
       <c r="O7" t="n">
-        <v>8.414308609305056</v>
+        <v>8.411544373792632</v>
       </c>
       <c r="P7" t="n">
-        <v>378.5859481067019</v>
+        <v>378.6141541777215</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26663,28 +26663,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01680093380185143</v>
+        <v>0.01380777607288718</v>
       </c>
       <c r="J8" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K8" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002088446229722152</v>
+        <v>0.0001414710726072022</v>
       </c>
       <c r="M8" t="n">
-        <v>6.379168788814057</v>
+        <v>6.38121635302266</v>
       </c>
       <c r="N8" t="n">
-        <v>74.4452259051085</v>
+        <v>74.40193963734694</v>
       </c>
       <c r="O8" t="n">
-        <v>8.628164689266686</v>
+        <v>8.62565589606651</v>
       </c>
       <c r="P8" t="n">
-        <v>386.2183259476641</v>
+        <v>386.2492164428168</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0135/nzd0135.xlsx
+++ b/data/nzd0135/nzd0135.xlsx
@@ -26186,13 +26186,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.0801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.129</v>
+        <v>0.1031</v>
       </c>
       <c r="I2" t="n">
         <v>0.01559651221637974</v>
@@ -26264,13 +26264,13 @@
         <v>0.1656865710161136</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0476</v>
+        <v>0.0569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0519</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>-0.04588811422905376</v>
@@ -26342,13 +26342,13 @@
         <v>0.332678576854874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0493</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0554</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.01537336972905122</v>
@@ -26423,10 +26423,10 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.054</v>
+        <v>0.0539</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0588</v>
+        <v>0.0602</v>
       </c>
       <c r="I5" t="n">
         <v>-0.04033500736478433</v>
@@ -26498,13 +26498,13 @@
         <v>0.66670601830551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0593</v>
+        <v>0.0672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0687</v>
+        <v>0.0751</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0670222863960294</v>
@@ -26579,10 +26579,10 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0545</v>
+        <v>0.0582</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0617</v>
+        <v>0.0667</v>
       </c>
       <c r="I7" t="n">
         <v>0.01949665952954912</v>
@@ -26654,13 +26654,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0591</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.1108</v>
       </c>
       <c r="I8" t="n">
         <v>0.01382186678449951</v>
